--- a/const/cave.xlsx
+++ b/const/cave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="1160" windowWidth="21540" windowHeight="15680"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="21540" windowHeight="15680"/>
   </bookViews>
   <sheets>
     <sheet name="cave" sheetId="2" r:id="rId1"/>
@@ -525,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -539,6 +539,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -560,8 +574,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -581,7 +599,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -914,8 +936,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="N98" activeCellId="5" sqref="N68:O68 N74:O74 N80:O80 N86:O86 N92:O92 N98:O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1256,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O8" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P8" s="2">
         <v>3</v>
@@ -1517,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O14" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P14" s="2">
         <v>3</v>
@@ -1778,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O20" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P20" s="2">
         <v>3</v>
@@ -2039,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O26" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P26" s="2">
         <v>3</v>
@@ -2300,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O32" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P32" s="2">
         <v>3</v>
@@ -2561,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O38" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P38" s="2">
         <v>3</v>
@@ -2822,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O44" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P44" s="2">
         <v>3</v>
@@ -3083,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O50" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P50" s="2">
         <v>3</v>
@@ -3347,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="N56" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O56" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P56" s="2">
         <v>3</v>
@@ -3605,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O62" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P62" s="2">
         <v>3</v>
@@ -3866,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="N68" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O68" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P68" s="2">
         <v>3</v>
@@ -4127,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="N74" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O74" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P74" s="2">
         <v>3</v>
@@ -4388,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O80" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P80" s="2">
         <v>3</v>
@@ -4649,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="N86" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O86" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P86" s="2">
         <v>3</v>
@@ -4910,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="N92" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O92" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P92" s="2">
         <v>3</v>
@@ -5171,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="N98" s="3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O98" s="3">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P98" s="2">
         <v>3</v>
@@ -5297,6 +5319,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/const/cave.xlsx
+++ b/const/cave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="21540" windowHeight="15680"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="27620" windowHeight="17320"/>
   </bookViews>
   <sheets>
     <sheet name="cave" sheetId="2" r:id="rId1"/>
@@ -936,8 +936,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="N98" activeCellId="5" sqref="N68:O68 N74:O74 N80:O80 N86:O86 N92:O92 N98:O98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1046,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
